--- a/Test with manipulated Dataset/ProcessedData.xlsx
+++ b/Test with manipulated Dataset/ProcessedData.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>Operation Research</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -494,12 +499,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -509,7 +514,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -545,6 +550,11 @@
       <c r="R2" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -559,7 +569,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -635,6 +645,11 @@
       <c r="R3" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -649,7 +664,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -659,7 +674,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -725,6 +740,11 @@
       <c r="R4" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -734,12 +754,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -764,7 +784,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -815,6 +835,11 @@
       <c r="R5" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -824,12 +849,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -839,7 +864,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -859,7 +884,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -869,7 +894,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -905,6 +930,11 @@
       <c r="R6" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -914,7 +944,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -929,12 +959,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -944,12 +974,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -959,7 +989,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -995,6 +1025,11 @@
       <c r="R7" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1039,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1019,12 +1054,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1034,12 +1069,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1049,7 +1084,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1085,6 +1120,11 @@
       <c r="R8" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1139,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1124,7 +1164,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1175,6 +1215,11 @@
       <c r="R9" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1229,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1199,12 +1244,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1214,7 +1259,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1229,7 +1274,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1265,6 +1310,11 @@
       <c r="R10" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1324,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1289,12 +1339,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1304,12 +1354,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1319,7 +1369,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1355,6 +1405,11 @@
       <c r="R11" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1419,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1379,12 +1434,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1394,12 +1449,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1409,7 +1464,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1445,6 +1500,11 @@
       <c r="R12" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1519,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1484,7 +1544,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1535,6 +1595,11 @@
       <c r="R13" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1609,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1574,12 +1639,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1589,7 +1654,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1625,6 +1690,11 @@
       <c r="R14" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1709,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1649,12 +1719,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1679,7 +1749,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1715,6 +1785,11 @@
       <c r="R15" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1819,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1754,7 +1829,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1769,7 +1844,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1805,6 +1880,11 @@
       <c r="R16" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1844,7 +1924,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1895,6 +1975,11 @@
       <c r="R17" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1994,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1919,7 +2004,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1939,7 +2024,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1949,7 +2034,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1985,6 +2070,11 @@
       <c r="R18" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2129,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2075,6 +2165,11 @@
       <c r="R19" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2084,12 +2179,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2099,12 +2194,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2129,7 +2224,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2165,6 +2260,11 @@
       <c r="R20" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2274,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2189,12 +2289,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2204,12 +2304,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2219,7 +2319,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2255,6 +2355,11 @@
       <c r="R21" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2399,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2309,7 +2414,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2345,6 +2450,11 @@
       <c r="R22" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2469,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2369,7 +2479,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2384,12 +2494,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2399,7 +2509,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2435,6 +2545,11 @@
       <c r="R23" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2444,12 +2559,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2459,7 +2574,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2474,12 +2589,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2489,7 +2604,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2525,6 +2640,11 @@
       <c r="R24" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2617,6 +2737,11 @@
           <t>Good marks in Operation Research</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2629,7 +2754,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2639,12 +2764,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2654,7 +2779,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2669,7 +2794,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2705,6 +2830,11 @@
       <c r="R26" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2849,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2729,12 +2859,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2744,12 +2874,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2759,7 +2889,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2795,6 +2925,11 @@
       <c r="R27" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2939,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2819,12 +2954,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2834,12 +2969,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2849,7 +2984,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2885,6 +3020,11 @@
       <c r="R28" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2914,7 +3054,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2975,6 +3115,11 @@
       <c r="R29" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2989,7 +3134,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2999,12 +3144,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3019,7 +3164,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3029,7 +3174,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3065,6 +3210,11 @@
       <c r="R30" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3224,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3094,7 +3244,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3109,7 +3259,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3155,6 +3305,11 @@
       <c r="R31" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3324,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3179,7 +3334,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3194,12 +3349,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3209,7 +3364,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3245,6 +3400,11 @@
       <c r="R32" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3254,12 +3414,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3269,7 +3429,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3289,7 +3449,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3335,6 +3495,11 @@
       <c r="R33" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3514,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3359,7 +3524,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3374,12 +3539,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3389,7 +3554,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3425,6 +3590,11 @@
       <c r="R34" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3434,12 +3604,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3449,12 +3619,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3515,6 +3685,11 @@
       <c r="R35" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3704,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3569,7 +3744,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3605,6 +3780,11 @@
       <c r="R36" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3814,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3649,7 +3829,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3659,7 +3839,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3695,6 +3875,11 @@
       <c r="R37" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3704,12 +3889,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3719,12 +3904,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3785,6 +3970,11 @@
       <c r="R38" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3809,7 +3999,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3824,7 +4014,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3875,6 +4065,11 @@
       <c r="R39" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3884,12 +4079,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3899,7 +4094,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3914,12 +4109,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3929,7 +4124,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3965,6 +4160,11 @@
       <c r="R40" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3979,7 +4179,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4004,12 +4204,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4019,7 +4219,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4055,6 +4255,11 @@
       <c r="R41" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4064,12 +4269,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4079,7 +4284,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4145,6 +4350,11 @@
       <c r="R42" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4159,22 +4369,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4189,7 +4399,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4199,7 +4409,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4235,6 +4445,11 @@
       <c r="R43" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4459,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4259,7 +4474,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4274,7 +4489,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4325,6 +4540,11 @@
       <c r="R44" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4574,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4364,12 +4584,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4379,7 +4599,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4415,6 +4635,11 @@
       <c r="R45" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4649,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4439,7 +4664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4454,12 +4679,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4469,7 +4694,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4505,6 +4730,11 @@
       <c r="R46" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4514,12 +4744,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4529,12 +4759,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4544,7 +4774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4559,7 +4789,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4595,6 +4825,11 @@
       <c r="R47" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4839,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4619,7 +4854,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4634,7 +4869,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4649,7 +4884,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4685,6 +4920,11 @@
       <c r="R48" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4939,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4709,7 +4949,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4775,6 +5015,11 @@
       <c r="R49" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4789,7 +5034,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4799,7 +5044,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4814,7 +5059,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4829,7 +5074,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4865,6 +5110,11 @@
       <c r="R50" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4874,7 +5124,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4894,7 +5144,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4904,12 +5154,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4919,7 +5169,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4955,6 +5205,11 @@
       <c r="R51" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4969,7 +5224,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4979,12 +5234,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4994,12 +5249,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5009,7 +5264,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5045,6 +5300,11 @@
       <c r="R52" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5054,12 +5314,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5069,7 +5329,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5084,7 +5344,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5099,7 +5359,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5135,6 +5395,11 @@
       <c r="R53" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5144,12 +5409,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5164,7 +5429,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5174,7 +5439,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5189,7 +5454,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5225,6 +5490,11 @@
       <c r="R54" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5524,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5264,7 +5534,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5315,6 +5585,11 @@
       <c r="R55" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5604,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5339,12 +5614,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5354,12 +5629,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5369,7 +5644,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5405,6 +5680,11 @@
       <c r="R56" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5694,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5429,12 +5709,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5495,6 +5775,11 @@
       <c r="R57" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5804,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5534,7 +5819,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5585,6 +5870,11 @@
       <c r="R58" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5884,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5609,7 +5899,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5624,12 +5914,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5639,7 +5929,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5675,6 +5965,11 @@
       <c r="R59" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5684,7 +5979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5704,7 +5999,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5714,12 +6009,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5729,7 +6024,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5765,6 +6060,11 @@
       <c r="R60" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5779,7 +6079,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5789,7 +6089,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5809,7 +6109,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5819,7 +6119,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5855,6 +6155,11 @@
       <c r="R61" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5864,27 +6169,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5945,6 +6250,11 @@
       <c r="R62" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5954,7 +6264,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5974,7 +6284,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5984,12 +6294,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5999,7 +6309,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -6035,6 +6345,11 @@
       <c r="R63" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6074,12 +6389,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -6089,7 +6404,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -6125,6 +6440,11 @@
       <c r="R64" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6134,12 +6454,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6149,7 +6469,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6164,7 +6484,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6215,6 +6535,11 @@
       <c r="R65" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6554,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -6239,7 +6564,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6254,7 +6579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6269,7 +6594,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -6305,6 +6630,11 @@
       <c r="R66" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6314,12 +6644,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -6329,7 +6659,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6344,12 +6674,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6359,7 +6689,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -6395,6 +6725,11 @@
       <c r="R67" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6744,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -6419,12 +6754,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6434,12 +6769,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6449,7 +6784,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6485,6 +6820,11 @@
       <c r="R68" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6839,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6509,7 +6849,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6524,12 +6864,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6539,7 +6879,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -6575,6 +6915,11 @@
       <c r="R69" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6584,12 +6929,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -6599,12 +6944,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6629,7 +6974,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -6665,6 +7010,11 @@
       <c r="R70" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6679,7 +7029,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -6689,12 +7039,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6709,7 +7059,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6755,6 +7105,11 @@
       <c r="R71" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6764,12 +7119,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6784,7 +7139,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6809,7 +7164,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6845,6 +7200,11 @@
       <c r="R72" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6854,12 +7214,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6869,7 +7229,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6884,7 +7244,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6935,6 +7295,11 @@
       <c r="R73" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6944,27 +7309,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6974,22 +7339,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6999,7 +7364,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -7025,6 +7390,11 @@
       <c r="R74" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7034,27 +7404,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -7074,12 +7444,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -7089,7 +7459,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7115,6 +7485,11 @@
       <c r="R75" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7124,27 +7499,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -7154,22 +7529,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -7179,7 +7554,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7205,6 +7580,11 @@
       <c r="R76" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7604,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -7234,7 +7614,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -7249,17 +7629,17 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7269,7 +7649,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7295,6 +7675,11 @@
       <c r="R77" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7689,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7314,7 +7699,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7324,7 +7709,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -7334,7 +7719,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7344,7 +7729,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -7359,7 +7744,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7385,6 +7770,11 @@
       <c r="R78" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7394,17 +7784,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -7414,7 +7804,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -7424,7 +7814,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7434,7 +7824,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7449,7 +7839,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7475,6 +7865,11 @@
       <c r="R79" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7879,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7494,7 +7889,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7504,7 +7899,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -7524,12 +7919,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -7539,7 +7934,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7565,6 +7960,11 @@
       <c r="R80" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7974,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7584,7 +7984,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7604,7 +8004,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7614,7 +8014,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7629,7 +8029,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7655,6 +8055,11 @@
       <c r="R81" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7664,27 +8069,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7699,17 +8104,17 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -7719,7 +8124,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7745,6 +8150,11 @@
       <c r="R82" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7754,27 +8164,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7784,22 +8194,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7809,7 +8219,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7835,6 +8245,11 @@
       <c r="R83" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7844,17 +8259,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7864,7 +8279,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7874,22 +8289,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7899,7 +8314,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7925,6 +8340,11 @@
       <c r="R84" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7934,27 +8354,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7964,22 +8384,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7989,7 +8409,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8015,6 +8435,11 @@
       <c r="R85" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8024,27 +8449,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8054,7 +8479,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -8064,12 +8489,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -8079,7 +8504,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8105,6 +8530,11 @@
       <c r="R86" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8114,27 +8544,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -8144,17 +8574,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -8169,7 +8599,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8195,6 +8625,11 @@
       <c r="R87" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8204,27 +8639,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -8234,7 +8669,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8244,7 +8679,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8259,7 +8694,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8285,6 +8720,11 @@
       <c r="R88" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8294,7 +8734,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8304,7 +8744,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -8314,7 +8754,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -8334,7 +8774,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8349,7 +8789,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8375,6 +8815,11 @@
       <c r="R89" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8384,12 +8829,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -8399,12 +8844,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -8419,7 +8864,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -8429,7 +8874,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -8465,6 +8910,11 @@
       <c r="R90" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8474,12 +8924,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8494,7 +8944,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -8555,6 +9005,11 @@
       <c r="R91" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8564,27 +9019,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -8599,17 +9054,17 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -8619,7 +9074,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8645,6 +9100,11 @@
       <c r="R92" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8654,12 +9114,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8669,12 +9129,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -8684,12 +9144,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -8699,7 +9159,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -8735,6 +9195,11 @@
       <c r="R93" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8744,7 +9209,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -8764,7 +9229,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8774,12 +9239,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -8789,7 +9254,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -8825,6 +9290,11 @@
       <c r="R94" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8834,12 +9304,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8849,12 +9319,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8864,12 +9334,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8879,7 +9349,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -8915,6 +9385,11 @@
       <c r="R95" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8924,17 +9399,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8944,7 +9419,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8954,7 +9429,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8964,7 +9439,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -8979,7 +9454,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9005,6 +9480,11 @@
       <c r="R96" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9494,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9034,7 +9514,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -9049,7 +9529,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -9059,7 +9539,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -9095,6 +9575,11 @@
       <c r="R97" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9104,12 +9589,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9119,12 +9604,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9139,7 +9624,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -9149,7 +9634,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -9185,6 +9670,11 @@
       <c r="R98" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9194,7 +9684,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9214,7 +9704,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -9224,7 +9714,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9239,7 +9729,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -9275,6 +9765,11 @@
       <c r="R99" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9289,22 +9784,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9314,22 +9809,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9339,7 +9834,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9365,6 +9860,11 @@
       <c r="R100" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9374,12 +9874,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -9389,12 +9889,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9409,7 +9909,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -9419,7 +9919,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -9455,6 +9955,11 @@
       <c r="R101" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9969,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9484,7 +9989,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -9494,12 +9999,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -9545,6 +10050,11 @@
       <c r="R102" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9559,7 +10069,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -9569,7 +10079,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -9589,7 +10099,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -9599,7 +10109,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9635,6 +10145,11 @@
       <c r="R103" t="inlineStr">
         <is>
           <t>Poor marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9644,27 +10159,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -9679,17 +10194,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -9699,7 +10214,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9725,6 +10240,11 @@
       <c r="R104" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9734,7 +10254,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -9764,12 +10284,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -9815,6 +10335,11 @@
       <c r="R105" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9824,12 +10349,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9839,12 +10364,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -9854,12 +10379,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9869,7 +10394,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -9905,6 +10430,11 @@
       <c r="R106" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9924,7 +10454,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -9934,7 +10464,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9944,7 +10474,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -9959,7 +10489,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -9995,6 +10525,11 @@
       <c r="R107" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10004,27 +10539,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -10034,7 +10569,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10044,7 +10579,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -10059,7 +10594,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10085,6 +10620,11 @@
       <c r="R108" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10639,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10109,12 +10649,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -10129,7 +10669,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -10139,7 +10679,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -10175,6 +10715,11 @@
       <c r="R109" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10184,12 +10729,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -10199,12 +10744,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -10219,7 +10764,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10229,7 +10774,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -10265,6 +10810,11 @@
       <c r="R110" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10274,12 +10824,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -10289,12 +10839,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10304,12 +10854,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -10319,7 +10869,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -10355,6 +10905,11 @@
       <c r="R111" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10364,17 +10919,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -10384,7 +10939,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -10394,7 +10949,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10404,12 +10959,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -10419,7 +10974,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -10445,6 +11000,11 @@
       <c r="R112" t="inlineStr">
         <is>
           <t>Average marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10454,12 +11014,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -10469,12 +11029,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -10484,12 +11044,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -10499,7 +11059,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -10535,6 +11095,11 @@
       <c r="R113" t="inlineStr">
         <is>
           <t>Good marks in Operation Research</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>

--- a/Test with manipulated Dataset/ProcessedData.xlsx
+++ b/Test with manipulated Dataset/ProcessedData.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -629,22 +629,22 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -814,22 +814,22 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -909,27 +909,27 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1099,22 +1099,22 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1194,27 +1194,27 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1479,27 +1479,27 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Poor marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1574,27 +1574,27 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1669,27 +1669,27 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1764,27 +1764,27 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1954,27 +1954,27 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2239,12 +2239,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3009,17 +3009,17 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3094,22 +3094,22 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3189,17 +3189,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3379,17 +3379,17 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3769,17 +3769,17 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3869,12 +3869,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4054,17 +4054,17 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4139,27 +4139,27 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4439,12 +4439,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4529,12 +4529,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4614,17 +4614,17 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4709,27 +4709,27 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4899,27 +4899,27 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4994,17 +4994,17 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5104,12 +5104,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5294,12 +5294,12 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5469,27 +5469,27 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5659,27 +5659,27 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5769,12 +5769,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5859,17 +5859,17 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5944,27 +5944,27 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -6039,22 +6039,22 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Poor marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -6134,12 +6134,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -6229,17 +6229,17 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6424,17 +6424,17 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6519,12 +6519,12 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -6624,12 +6624,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -6704,17 +6704,17 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -6799,27 +6799,27 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -6904,12 +6904,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -6989,17 +6989,17 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -7084,27 +7084,27 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -7274,27 +7274,27 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -7369,22 +7369,22 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -7479,12 +7479,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7559,17 +7559,17 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7664,17 +7664,17 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -7764,12 +7764,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -7949,17 +7949,17 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8049,12 +8049,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -8324,22 +8324,22 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -8424,17 +8424,17 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -8509,22 +8509,22 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -8604,27 +8604,27 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -8699,17 +8699,17 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -8804,17 +8804,17 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -8899,17 +8899,17 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -8989,22 +8989,22 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -9094,12 +9094,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -9274,22 +9274,22 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -9364,27 +9364,27 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Average marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -9564,12 +9564,12 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -9654,12 +9654,12 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -9749,22 +9749,22 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9939,22 +9939,22 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -10039,12 +10039,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Poor marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -10124,27 +10124,27 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Poor marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Poor marks in Operation Research</t>
+          <t>Good marks in Operation Research</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -10219,27 +10219,27 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Good marks in Data Base Management System</t>
+          <t>Average marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -10319,22 +10319,22 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -10414,22 +10414,22 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Good marks in Computer Networks</t>
+          <t>Average marks in Computer Networks</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Good marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -10519,12 +10519,12 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -10694,17 +10694,17 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Poor marks in Computer Networks</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -10714,7 +10714,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>Good marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10884,27 +10884,27 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Poor marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Average marks in Computer Networks</t>
+          <t>Good marks in Computer Networks</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Good marks in Operating System</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>Average marks in Information Theory &amp; Coding / Computer Graphics</t>
+          <t>Poor marks in Information Theory &amp; Coding / Computer Graphics</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Average marks in Discrete Mathematics</t>
+          <t>Good marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Poor marks in Operating System</t>
+          <t>Average marks in Operating System</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Average marks in Operation Research</t>
+          <t>Poor marks in Operation Research</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Good marks in Discrete Mathematics</t>
+          <t>Poor marks in Discrete Mathematics</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Average marks in Data Base Management System</t>
+          <t>Good marks in Data Base Management System</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Average marks in Operating System</t>
+          <t>Poor marks in Operating System</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Good marks in Operation Research</t>
+          <t>Average marks in Operation Research</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">

--- a/Test with manipulated Dataset/ProcessedData.xlsx
+++ b/Test with manipulated Dataset/ProcessedData.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Good marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -664,17 +664,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Good marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1069,12 +1069,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1139,17 +1139,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1639,12 +1639,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -1734,12 +1734,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Good marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3414,27 +3414,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3449,17 +3449,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Good marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Good marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3539,12 +3539,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3634,12 +3634,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3824,12 +3824,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3839,7 +3839,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Average marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4489,12 +4489,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4679,12 +4679,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5124,12 +5124,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5154,22 +5154,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6294,12 +6294,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6389,12 +6389,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6484,12 +6484,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6589,7 +6589,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6644,27 +6644,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6674,22 +6674,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6739,22 +6739,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6769,22 +6769,22 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -7314,17 +7314,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7339,22 +7339,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Poor marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7409,17 +7409,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7439,17 +7439,17 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7504,17 +7504,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -7529,22 +7529,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7599,17 +7599,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7624,22 +7624,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7694,17 +7694,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7719,22 +7719,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7789,17 +7789,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7814,22 +7814,22 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -7979,17 +7979,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8009,17 +8009,17 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Good marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8169,17 +8169,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8194,22 +8194,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8264,17 +8264,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8289,22 +8289,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8359,17 +8359,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8384,22 +8384,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8449,22 +8449,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Average marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8484,17 +8484,17 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -8549,17 +8549,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -8669,22 +8669,22 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -8939,12 +8939,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -8954,12 +8954,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -9024,17 +9024,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Good marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9049,22 +9049,22 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -9399,27 +9399,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -9429,22 +9429,22 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9589,27 +9589,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9619,22 +9619,22 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9784,17 +9784,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -9814,17 +9814,17 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9874,27 +9874,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9904,22 +9904,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Poor marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10064,27 +10064,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10094,17 +10094,17 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10159,27 +10159,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Good marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Good marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -10194,17 +10194,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Good marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10349,27 +10349,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Poor marks in Introduction to Computing</t>
+          <t>Average marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Average marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Poor marks in Numerical Methods</t>
+          <t>Average marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -10379,22 +10379,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Average marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Poor marks in Object Oriented Programming</t>
+          <t>Average marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>Poor marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Good marks in Introduction to Computing</t>
+          <t>Poor marks in Introduction to Computing</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Poor marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
+          <t>Good marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -10544,17 +10544,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -10569,22 +10569,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -10664,12 +10664,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Poor marks in Data Structure &amp; Algorithm</t>
+          <t>Good marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Average marks in Formal Language &amp; Automata Theory</t>
+          <t>Good marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Average marks in Compiler Design</t>
+          <t>Good marks in Compiler Design</t>
         </is>
       </c>
     </row>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Good marks in Analog &amp; Digital Electronics</t>
+          <t>Poor marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -10839,12 +10839,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Good marks in Computer Organisation</t>
+          <t>Poor marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Good marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Good marks in Computer Architecture</t>
+          <t>Poor marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Good marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -10924,22 +10924,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Average marks in Analog &amp; Digital Electronics</t>
+          <t>Good marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Average marks in Data Structure &amp; Algorithm</t>
+          <t>Poor marks in Data Structure &amp; Algorithm</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Average marks in Computer Organisation</t>
+          <t>Good marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Average marks in Numerical Methods</t>
+          <t>Poor marks in Numerical Methods</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -10954,12 +10954,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Average marks in Computer Architecture</t>
+          <t>Good marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Average marks in Design &amp; Analysis of Algorithm</t>
+          <t>Poor marks in Design &amp; Analysis of Algorithm</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Average marks in Object Oriented Programming</t>
+          <t>Poor marks in Object Oriented Programming</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Poor marks in Analog &amp; Digital Electronics</t>
+          <t>Average marks in Analog &amp; Digital Electronics</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Organisation</t>
+          <t>Average marks in Computer Organisation</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Good marks in Formal Language &amp; Automata Theory</t>
+          <t>Average marks in Formal Language &amp; Automata Theory</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Poor marks in Computer Architecture</t>
+          <t>Average marks in Computer Architecture</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Poor marks in Microprocessors &amp; Microcontrollers</t>
+          <t>Average marks in Microprocessors &amp; Microcontrollers</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
